--- a/Analysis/QuixBugs_Gemini-APR/APR_zero_shot_Gemini_1.5_Pro_Java.xlsx
+++ b/Analysis/QuixBugs_Gemini-APR/APR_zero_shot_Gemini_1.5_Pro_Java.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Analysis\QuixBugs_Gemini-APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE5DD33-9EEE-4B13-885D-D7825EC8E782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A43B044-448A-4D34-9CF7-5DB61113B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9480" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{90C04BF9-1A12-42FF-B4BF-2B7DD57396EA}"/>
   </bookViews>
   <sheets>
     <sheet name="APR_zero_shot_Gemini_1.5_Pro_Ja" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6246,7 +6259,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6264,9 +6277,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6646,13 +6656,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5732D73-569F-4CD6-9420-50B5A056FC99}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E46"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="9" width="80.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="80.453125" style="1" customWidth="1"/>
+    <col min="2" max="9" width="40.36328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.31640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7176,7 +7187,7 @@
         <v>257</v>
       </c>
       <c r="J17" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -7240,7 +7251,7 @@
         <v>259</v>
       </c>
       <c r="J19" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -7367,7 +7378,7 @@
       <c r="I23" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J23" s="7" t="b">
+      <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7397,7 +7408,7 @@
         <v>264</v>
       </c>
       <c r="J24" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -7479,7 +7490,7 @@
         <v>266</v>
       </c>
       <c r="J27" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -7630,7 +7641,7 @@
         <v>271</v>
       </c>
       <c r="J32" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -7749,7 +7760,7 @@
         <v>275</v>
       </c>
       <c r="J36" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -7781,7 +7792,7 @@
         <v>276</v>
       </c>
       <c r="J37" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="354" x14ac:dyDescent="0.75">
@@ -7877,7 +7888,7 @@
         <v>279</v>
       </c>
       <c r="J40" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -7985,7 +7996,7 @@
       </c>
       <c r="J44" s="1">
         <f>COUNTIF(J2:J43,TRUE)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.75">
@@ -8005,7 +8016,7 @@
       </c>
       <c r="J45" s="1">
         <f>COUNTIF(J2:J43,FALSE)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.75">
@@ -8025,7 +8036,7 @@
       </c>
       <c r="J46" s="1">
         <f>J44/(J44+J45)*100</f>
-        <v>77.5</v>
+        <v>97.5</v>
       </c>
     </row>
   </sheetData>
